--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -8,20 +8,207 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803A25A1-D9FE-434F-96A4-07D42F94C5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F5CA0B-6A51-4B28-8952-E97ABAF1A6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="departments" sheetId="1" r:id="rId1"/>
-    <sheet name="abc" sheetId="3" r:id="rId2"/>
+    <sheet name="employees" sheetId="4" r:id="rId2"/>
+    <sheet name="users" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>王顶</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{AB94AF5A-8966-412E-8208-FC61DAA67403}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>王顶:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Yes or No</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{CA60294F-3AA0-4ECD-8DBF-97CD9AB2FDC2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>王顶:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+PK or FK</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>王顶</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{90B951DA-4CE3-478E-988A-4AD997D2976F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>王顶:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Yes or No</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{296A7626-1060-48C5-8D1F-9F26679ABD37}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>王顶:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+PK or FK</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>王顶</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{0B87FD71-4B96-4064-BA7A-077491B84BF0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>王顶:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Yes or No</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{44AE6761-84EF-4F52-B170-2F79E002E1BF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>王顶:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+PK or FK</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
   <si>
     <t>Field</t>
   </si>
@@ -38,52 +225,134 @@
     <t>Default</t>
   </si>
   <si>
-    <t>Extra</t>
-  </si>
-  <si>
-    <t>Note</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manager_id </t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sample1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sample2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>department_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>residents_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(18)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(64)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>department_name</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manager_id </t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>location_id</t>
-  </si>
-  <si>
-    <t>FK</t>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(4)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marketing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchasing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangsan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lisi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangsan@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lisi@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>52262619800410121X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>730f75dafd73e047b86acb2dbd74e75dcb93272fa084a9082848f2341aa1abb6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>don't modify this row</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -91,7 +360,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="000000"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -121,8 +393,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,8 +439,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -172,13 +482,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -194,9 +525,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,20 +852,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="departments"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.640625" customWidth="1"/>
+    <col min="2" max="2" width="11.2109375" customWidth="1"/>
+    <col min="3" max="3" width="8.92578125" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.2109375" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,102 +887,113 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>201</v>
+      </c>
+      <c r="G4" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A2B52E-77F8-4F03-A9E4-CD81CAEC556C}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E690BD5-FC95-4AE9-AA4B-CBB1314A01D2}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.78515625" customWidth="1"/>
+    <col min="2" max="2" width="9.92578125" customWidth="1"/>
+    <col min="3" max="3" width="8.640625" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.78515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,84 +1010,269 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2">
+        <v>18385055078</v>
+      </c>
+      <c r="G5" s="2">
+        <v>18637885168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="8">
+        <v>5.2232419730915501E+17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{B61C7BEF-EEF0-4771-8446-F3FEF93F4DAC}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{84F2DEEA-CE56-4FA9-99DA-0888C7F1A965}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A2B52E-77F8-4F03-A9E4-CD81CAEC556C}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.2109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.640625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>